--- a/benchmarks/speedup_comparison.xlsx
+++ b/benchmarks/speedup_comparison.xlsx
@@ -476,12 +476,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>_compute_precisions_cholesky</t>
+          <t>_maximization_step</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -494,205 +494,205 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5061601928900927</v>
+        <v>0.450134911807254</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4116309973661684</v>
+        <v>0.1324756908531867</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2202785923145711</v>
+        <v>0.1829224987886846</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2163438991368679</v>
+        <v>0.0206478852027326</v>
       </c>
       <c r="J2" t="n">
-        <v>2.297818356162661</v>
+        <v>2.460795773007988</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>_compute_precisions_cholesky</t>
+          <t>TorchGaussianMixture.fit</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>1.904777495656163</v>
+        <v>13.52092534458886</v>
       </c>
       <c r="G3" t="n">
-        <v>1.768050379700831</v>
+        <v>1.191474979905249</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9788948926143348</v>
+        <v>11.64670833774532</v>
       </c>
       <c r="I3" t="n">
-        <v>1.33185535858486</v>
+        <v>2.490389354718123</v>
       </c>
       <c r="J3" t="n">
-        <v>1.945844758234536</v>
+        <v>1.160922464312897</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>_compute_precisions_cholesky</t>
+          <t>_maximization_step</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>1.546977896941826</v>
+        <v>2.331453916849568</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4748167242803424</v>
+        <v>1.984161536843239</v>
       </c>
       <c r="H4" t="n">
-        <v>1.120797998737544</v>
+        <v>1.353842503158376</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5215059725214817</v>
+        <v>0.3296520629571567</v>
       </c>
       <c r="J4" t="n">
-        <v>1.380246840808359</v>
+        <v>1.722101286826589</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>_compute_precisions</t>
+          <t>TorchGaussianMixture.fit</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06253939936868846</v>
+        <v>37.5325593049638</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002580359973197003</v>
+        <v>6.683749062159406</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04411909612827003</v>
+        <v>42.39961568964645</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04520404722661944</v>
+        <v>12.22135834763968</v>
       </c>
       <c r="J5" t="n">
-        <v>1.417513159990042</v>
+        <v>0.8852098938747895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>_compute_precisions</t>
+          <t>_maximization_step</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7171641918830574</v>
+        <v>11.01770000532269</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2708274388855445</v>
+        <v>1.511694376542218</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2702283032704145</v>
+        <v>27.77586799347773</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1550332253549652</v>
+        <v>2.239002524270575</v>
       </c>
       <c r="J6" t="n">
-        <v>2.653919605028934</v>
+        <v>0.3966644717605169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>_compute_precisions</t>
+          <t>_estimate_log_gaussian_prob_tied_precchol</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6155655952170491</v>
+        <v>0.4193803993985057</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3106208272167905</v>
+        <v>0.2386536237897989</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2029902942012995</v>
+        <v>0.2107206964865327</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0295908877442843</v>
+        <v>0.05275635152072836</v>
       </c>
       <c r="J7" t="n">
-        <v>3.03248782233209</v>
+        <v>1.990219311112179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>_estimate_log_gaussian_prob_tied_precchol</t>
+          <t>_maximization_step</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -710,25 +710,25 @@
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4157128045335412</v>
+        <v>0.3138965112157166</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1421792733049367</v>
+        <v>0.04981436749508657</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4208709055092186</v>
+        <v>0.3371396102011204</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1333970479150786</v>
+        <v>0.04630397406384053</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9877442205955375</v>
+        <v>0.9310579407399263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>_estimate_log_gaussian_prob_tied_precchol</t>
+          <t>TorchGaussianMixture.fit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>4.160896898247302</v>
+        <v>4.949284659232944</v>
       </c>
       <c r="G9" t="n">
-        <v>1.141894047892829</v>
+        <v>1.965017131183696</v>
       </c>
       <c r="H9" t="n">
-        <v>5.752438289346173</v>
+        <v>2.894892008043826</v>
       </c>
       <c r="I9" t="n">
-        <v>2.675881050561745</v>
+        <v>0.4750682050116928</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7233275159080815</v>
+        <v>1.709661239687259</v>
       </c>
     </row>
     <row r="10">
@@ -773,75 +773,75 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>45.21902400883846</v>
+        <v>2.016141905914992</v>
       </c>
       <c r="G10" t="n">
-        <v>14.30233800756789</v>
+        <v>0.4930243904024206</v>
       </c>
       <c r="H10" t="n">
-        <v>37.75988930137828</v>
+        <v>2.465680608293042</v>
       </c>
       <c r="I10" t="n">
-        <v>8.966863878710694</v>
+        <v>0.9145870598931194</v>
       </c>
       <c r="J10" t="n">
-        <v>1.197541222854907</v>
+        <v>0.8176816977567669</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>_estimate_log_gaussian_prob_full_precchol</t>
+          <t>_maximization_step</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9487537026870996</v>
+        <v>3.175517916679382</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5597951806652294</v>
+        <v>1.316052945837307</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4495714034419507</v>
+        <v>3.607950697187334</v>
       </c>
       <c r="I11" t="n">
-        <v>0.168159693839842</v>
+        <v>0.9826375094639167</v>
       </c>
       <c r="J11" t="n">
-        <v>2.110351537983452</v>
+        <v>0.8801444873276496</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>_estimate_log_gaussian_prob_full_precchol</t>
+          <t>TorchGaussianMixture.fit</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -851,33 +851,33 @@
         <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>4.299080406781286</v>
+        <v>11.40718901297078</v>
       </c>
       <c r="G12" t="n">
-        <v>1.024534251526743</v>
+        <v>2.895266571640174</v>
       </c>
       <c r="H12" t="n">
-        <v>3.961432294454426</v>
+        <v>9.927896996183941</v>
       </c>
       <c r="I12" t="n">
-        <v>1.947232147644512</v>
+        <v>2.245066842066469</v>
       </c>
       <c r="J12" t="n">
-        <v>1.085233846555836</v>
+        <v>1.149003562119494</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>_estimate_log_gaussian_prob_full_precchol</t>
+          <t>_estimate_log_gaussian_prob_tied_precchol</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -887,22 +887,22 @@
         <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>16.01757429307327</v>
+        <v>15.03023460390978</v>
       </c>
       <c r="G13" t="n">
-        <v>6.415794274715767</v>
+        <v>1.309180928019012</v>
       </c>
       <c r="H13" t="n">
-        <v>13.72953620157205</v>
+        <v>25.91667589731514</v>
       </c>
       <c r="I13" t="n">
-        <v>7.000498544015837</v>
+        <v>5.240738662265411</v>
       </c>
       <c r="J13" t="n">
-        <v>1.166650792707713</v>
+        <v>0.5799445370024032</v>
       </c>
     </row>
     <row r="14">
@@ -913,115 +913,115 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>diag</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D14" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" t="n">
         <v>20</v>
       </c>
-      <c r="E14" t="n">
-        <v>5</v>
-      </c>
       <c r="F14" t="n">
-        <v>2.24162481026724</v>
+        <v>25.57757350150496</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8033663602922515</v>
+        <v>1.886056339373293</v>
       </c>
       <c r="H14" t="n">
-        <v>0.789219606667757</v>
+        <v>80.78049459727481</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3504170827733724</v>
+        <v>3.858457963010033</v>
       </c>
       <c r="J14" t="n">
-        <v>2.840305526280357</v>
+        <v>0.3166305632197483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>_maximization_step</t>
+          <t>_compute_precisions_cholesky</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>diag</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>3.078844898846</v>
+        <v>0.1666151045355946</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7442212632840927</v>
+        <v>0.1135115570616916</v>
       </c>
       <c r="H15" t="n">
-        <v>1.854794193059206</v>
+        <v>0.1031568099278957</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3501479626107444</v>
+        <v>0.02668522680127083</v>
       </c>
       <c r="J15" t="n">
-        <v>1.659938827912711</v>
+        <v>1.615163406585129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>_maximization_step</t>
+          <t>_compute_precisions</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>diag</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>16.85928740189411</v>
+        <v>0.03105999203398824</v>
       </c>
       <c r="G16" t="n">
-        <v>2.053413388374544</v>
+        <v>0.000678339726004085</v>
       </c>
       <c r="H16" t="n">
-        <v>51.82072299649008</v>
+        <v>0.007837096927687526</v>
       </c>
       <c r="I16" t="n">
-        <v>7.777382620928798</v>
+        <v>0.0002569159501781693</v>
       </c>
       <c r="J16" t="n">
-        <v>0.325338714456686</v>
+        <v>3.96320121093016</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>_maximization_step</t>
+          <t>_estimate_log_gaussian_prob_full_precchol</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tied</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1034,19 +1034,19 @@
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.720556901069358</v>
+        <v>0.4364194988738745</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3782101666295902</v>
+        <v>0.06113912044385759</v>
       </c>
       <c r="H17" t="n">
-        <v>1.53711698949337</v>
+        <v>0.2589675015769899</v>
       </c>
       <c r="I17" t="n">
-        <v>0.304348168525423</v>
+        <v>0.02639495297570719</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4687716718991258</v>
+        <v>1.685228826846171</v>
       </c>
     </row>
     <row r="18">
@@ -1057,74 +1057,74 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tied</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>4.80912440107204</v>
+        <v>1.848321396391839</v>
       </c>
       <c r="G18" t="n">
-        <v>1.073142447767913</v>
+        <v>0.8135488201834762</v>
       </c>
       <c r="H18" t="n">
-        <v>5.54947059135884</v>
+        <v>1.162103796377778</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8488979724861077</v>
+        <v>0.8319351821421227</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8665915643485698</v>
+        <v>1.590495962712598</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>_maximization_step</t>
+          <t>TorchGaussianMixture.fit</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tied</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>39.52300590462983</v>
+        <v>29.92165767742942</v>
       </c>
       <c r="G19" t="n">
-        <v>2.780703472475082</v>
+        <v>4.04296688410544</v>
       </c>
       <c r="H19" t="n">
-        <v>94.82597519527189</v>
+        <v>21.52464932684476</v>
       </c>
       <c r="I19" t="n">
-        <v>7.999660196223164</v>
+        <v>3.778393908502379</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4167951431371146</v>
+        <v>1.390111273037662</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>_maximization_step</t>
+          <t>_compute_precisions_cholesky</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1133,34 +1133,34 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>2.489827800309286</v>
+        <v>0.5656105000525713</v>
       </c>
       <c r="G20" t="n">
-        <v>1.688105700771197</v>
+        <v>0.3964756663224189</v>
       </c>
       <c r="H20" t="n">
-        <v>0.523478799732402</v>
+        <v>0.1705931150354445</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3418662831103773</v>
+        <v>0.048250049541323</v>
       </c>
       <c r="J20" t="n">
-        <v>4.756310669280332</v>
+        <v>3.31555291627715</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>_maximization_step</t>
+          <t>_compute_precisions</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1178,25 +1178,25 @@
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>5.718481604708359</v>
+        <v>0.1453039061743766</v>
       </c>
       <c r="G21" t="n">
-        <v>2.351993092497222</v>
+        <v>0.02700967109957315</v>
       </c>
       <c r="H21" t="n">
-        <v>2.930257300613448</v>
+        <v>0.04763819160871208</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4141409969891029</v>
+        <v>0.01186937266446013</v>
       </c>
       <c r="J21" t="n">
-        <v>1.95152883110681</v>
+        <v>3.05015579449081</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>_maximization_step</t>
+          <t>_estimate_log_gaussian_prob_full_precchol</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1205,75 +1205,75 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>10.67073451122269</v>
+        <v>2.888031402835622</v>
       </c>
       <c r="G22" t="n">
-        <v>1.288578560239632</v>
+        <v>0.7224816116141111</v>
       </c>
       <c r="H22" t="n">
-        <v>10.06181970005855</v>
+        <v>2.042149292537943</v>
       </c>
       <c r="I22" t="n">
-        <v>1.190255153103101</v>
+        <v>0.4050252242186253</v>
       </c>
       <c r="J22" t="n">
-        <v>1.060517364583724</v>
+        <v>1.414211690295392</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>_kmeans_lloyd_with_init</t>
+          <t>_maximization_step</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>6.753291189670563</v>
+        <v>6.503827008418739</v>
       </c>
       <c r="G23" t="n">
-        <v>3.138198026718486</v>
+        <v>2.073988007254053</v>
       </c>
       <c r="H23" t="n">
-        <v>3.11553260544315</v>
+        <v>3.233443002682179</v>
       </c>
       <c r="I23" t="n">
-        <v>1.608946402072568</v>
+        <v>1.290858187326016</v>
       </c>
       <c r="J23" t="n">
-        <v>2.16762012949949</v>
+        <v>2.011424664985199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>_kmeans_lloyd_with_init</t>
+          <t>TorchGaussianMixture.fit</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1283,33 +1283,33 @@
         <v>50</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>14.28517741151154</v>
+        <v>119.786839990411</v>
       </c>
       <c r="G24" t="n">
-        <v>1.965287696866408</v>
+        <v>27.10058913911693</v>
       </c>
       <c r="H24" t="n">
-        <v>6.455104995984584</v>
+        <v>61.60724300813551</v>
       </c>
       <c r="I24" t="n">
-        <v>1.598477365798449</v>
+        <v>4.201825111264215</v>
       </c>
       <c r="J24" t="n">
-        <v>2.213004656066427</v>
+        <v>1.94436293756227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>_kmeans_lloyd_with_init</t>
+          <t>_compute_precisions_cholesky</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1319,238 +1319,238 @@
         <v>100</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>34.28108999505639</v>
+        <v>0.4165725084021688</v>
       </c>
       <c r="G25" t="n">
-        <v>9.454839995960885</v>
+        <v>0.03748828564352247</v>
       </c>
       <c r="H25" t="n">
-        <v>18.46106578595936</v>
+        <v>0.3259302116930485</v>
       </c>
       <c r="I25" t="n">
-        <v>5.107960931733852</v>
+        <v>0.09037528925134744</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85693991844875</v>
+        <v>1.278103389797091</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TorchGaussianMixture.fit</t>
+          <t>_compute_precisions</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>diag</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>21.50993367346625</v>
+        <v>0.2027027891017497</v>
       </c>
       <c r="G26" t="n">
-        <v>7.403705895992987</v>
+        <v>0.03430058066310663</v>
       </c>
       <c r="H26" t="n">
-        <v>12.62507166635866</v>
+        <v>0.1254188013263047</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9785180905239004</v>
+        <v>0.009806133452759153</v>
       </c>
       <c r="J26" t="n">
-        <v>1.70374745125468</v>
+        <v>1.616207354544664</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TorchGaussianMixture.fit</t>
+          <t>_estimate_log_gaussian_prob_full_precchol</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>diag</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>45.79701165979107</v>
+        <v>5.245532694971189</v>
       </c>
       <c r="G27" t="n">
-        <v>5.289502035166405</v>
+        <v>0.7317313876458609</v>
       </c>
       <c r="H27" t="n">
-        <v>43.53063029702753</v>
+        <v>5.775378999533132</v>
       </c>
       <c r="I27" t="n">
-        <v>12.39936010396493</v>
+        <v>0.3615964659091776</v>
       </c>
       <c r="J27" t="n">
-        <v>1.052064060347831</v>
+        <v>0.9082577429801967</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TorchGaussianMixture.fit</t>
+          <t>_maximization_step</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tied</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
       </c>
       <c r="F28" t="n">
-        <v>8.174675012317797</v>
+        <v>10.50152819952928</v>
       </c>
       <c r="G28" t="n">
-        <v>1.114406645588257</v>
+        <v>1.650155901872884</v>
       </c>
       <c r="H28" t="n">
-        <v>9.846648667007685</v>
+        <v>8.407217304920778</v>
       </c>
       <c r="I28" t="n">
-        <v>1.149432680572321</v>
+        <v>1.403609561785657</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8301987091006887</v>
+        <v>1.249108690622602</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TorchGaussianMixture.fit</t>
+          <t>_kmeans_lloyd_with_init</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D29" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>30.00366532554229</v>
+        <v>4.854389210231602</v>
       </c>
       <c r="G29" t="n">
-        <v>7.676827197658878</v>
+        <v>3.393013982703177</v>
       </c>
       <c r="H29" t="n">
-        <v>19.29328532423824</v>
+        <v>2.051664609462023</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8892308661227488</v>
+        <v>0.1651375077439367</v>
       </c>
       <c r="J29" t="n">
-        <v>1.555135106401425</v>
+        <v>2.366073474116462</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TorchGaussianMixture.fit</t>
+          <t>_kmeans_lloyd_with_init</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>44.25231633164609</v>
+        <v>9.482237393967807</v>
       </c>
       <c r="G30" t="n">
-        <v>26.89462353681902</v>
+        <v>2.0486794635028</v>
       </c>
       <c r="H30" t="n">
-        <v>22.28642132831737</v>
+        <v>7.57343020522967</v>
       </c>
       <c r="I30" t="n">
-        <v>3.475309380979295</v>
+        <v>1.344112971547114</v>
       </c>
       <c r="J30" t="n">
-        <v>1.985617864785613</v>
+        <v>1.252039978848693</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TorchGaussianMixture.fit</t>
+          <t>_kmeans_lloyd_with_init</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D31" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F31" t="n">
-        <v>61.86615301218504</v>
+        <v>27.11349718738347</v>
       </c>
       <c r="G31" t="n">
-        <v>17.23659201906365</v>
+        <v>6.044830419891486</v>
       </c>
       <c r="H31" t="n">
-        <v>46.76102466570834</v>
+        <v>13.96285960217938</v>
       </c>
       <c r="I31" t="n">
-        <v>1.006062742984412</v>
+        <v>2.868270668984783</v>
       </c>
       <c r="J31" t="n">
-        <v>1.323028172595924</v>
+        <v>1.941829822821644</v>
       </c>
     </row>
   </sheetData>
